--- a/biology/Zoologie/Formation_de_Cedar_Mountain/Formation_de_Cedar_Mountain.xlsx
+++ b/biology/Zoologie/Formation_de_Cedar_Mountain/Formation_de_Cedar_Mountain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Formation de Cedar Mountain est une formation géologique de l'Utah (États-Unis) composé de sédiments datant du Crétacé inférieur.
 </t>
@@ -511,7 +523,9 @@
           <t>Lithologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette formation 
 est composée de grès à grains fins à moyen déposés en milieu continental.
@@ -543,7 +557,9 @@
           <t>Âge</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Formation de Cedar Mountain est datée de l'Aptien et de l'Albien, derniers étages du Crétacé inférieur.
 Cette formation géologique renferme de nombreux fossiles.
@@ -577,13 +593,161 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Requins et raies
-Poissons à nageoires rayonnées
-Amphibiens
-Reptiles
-Dinosaures
-Synapsides
-Mammifères
+          <t>Requins et raies</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Formation_de_Cedar_Mountain</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formation_de_Cedar_Mountain</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Paléontologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Poissons à nageoires rayonnées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Formation_de_Cedar_Mountain</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formation_de_Cedar_Mountain</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Paléontologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Reptiles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Formation_de_Cedar_Mountain</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formation_de_Cedar_Mountain</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Paléontologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dinosaures</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Formation_de_Cedar_Mountain</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formation_de_Cedar_Mountain</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Paléontologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
